--- a/MacroTrend/BIG/BIG_Q.xlsx
+++ b/MacroTrend/BIG/BIG_Q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ13"/>
+  <dimension ref="A1:CQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,62 +913,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1026.677</v>
+        <v>1432.484</v>
       </c>
       <c r="C2" t="n">
-        <v>652.862</v>
+        <v>888.0410000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>373.815</v>
+        <v>544.443</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>525.73</v>
+        <v>535.249</v>
       </c>
       <c r="G2" t="n">
-        <v>204.719</v>
+        <v>0.551</v>
       </c>
       <c r="H2" t="n">
-        <v>354.133</v>
+        <v>568.216</v>
       </c>
       <c r="I2" t="n">
-        <v>19.682</v>
+        <v>-23.773</v>
       </c>
       <c r="J2" t="n">
-        <v>-13.592</v>
+        <v>-10.84</v>
       </c>
       <c r="K2" t="n">
-        <v>6.09</v>
+        <v>-34.613</v>
       </c>
       <c r="L2" t="n">
-        <v>1.347</v>
+        <v>-3.904</v>
       </c>
       <c r="M2" t="n">
-        <v>4.743</v>
+        <v>-30.709</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.743</v>
+        <v>-30.709</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.743</v>
+        <v>-30.709</v>
       </c>
       <c r="R2" t="n">
-        <v>53.346</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.682</v>
+        <v>-23.773</v>
       </c>
       <c r="T2" t="n">
         <v>29</v>
@@ -977,10 +977,10 @@
         <v>29</v>
       </c>
       <c r="V2" t="n">
-        <v>0.16</v>
+        <v>-1.05</v>
       </c>
       <c r="W2" t="n">
-        <v>0.16</v>
+        <v>-1.05</v>
       </c>
       <c r="X2" t="n">
         <v>46.594</v>
@@ -1052,43 +1052,43 @@
         <v>3625.489</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.743</v>
+        <v>451.167</v>
       </c>
       <c r="AV2" t="n">
-        <v>33.664</v>
+        <v>-112.88</v>
       </c>
       <c r="AW2" t="n">
-        <v>-95.983</v>
+        <v>-226.434</v>
       </c>
       <c r="AX2" t="n">
-        <v>-62.319</v>
+        <v>-339.314</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-194.121</v>
+        <v>29.397</v>
       </c>
       <c r="BA2" t="n">
-        <v>69.8</v>
+        <v>13.407</v>
       </c>
       <c r="BB2" t="n">
-        <v>-71.631</v>
+        <v>250.487</v>
       </c>
       <c r="BC2" t="n">
-        <v>-190.945</v>
+        <v>287.279</v>
       </c>
       <c r="BD2" t="n">
-        <v>-248.521</v>
+        <v>147.172</v>
       </c>
       <c r="BE2" t="n">
-        <v>-15.006</v>
+        <v>45.004</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>329.717</v>
+        <v>-339.347</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1100,43 +1100,43 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="BL2" t="n">
-        <v>314.701</v>
+        <v>-14.812</v>
       </c>
       <c r="BM2" t="n">
-        <v>41.156</v>
+        <v>-231.6</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>41.156</v>
+        <v>-231.6</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.096</v>
+        <v>1.562</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.096</v>
+        <v>1.562</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.046</v>
+        <v>9.786</v>
       </c>
       <c r="BS2" t="n">
-        <v>-106.634</v>
+        <v>113.579</v>
       </c>
       <c r="BT2" t="n">
-        <v>-65.62</v>
+        <v>-132.543</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.183</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.102</v>
+        <v>-9.597</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.046</v>
+        <v>9.786</v>
       </c>
       <c r="BX2" t="n">
         <v>1.4402</v>
@@ -1202,62 +1202,62 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1139.361</v>
+        <v>1026.677</v>
       </c>
       <c r="C3" t="n">
-        <v>763.477</v>
+        <v>652.862</v>
       </c>
       <c r="D3" t="n">
-        <v>375.884</v>
+        <v>373.815</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>456.689</v>
+        <v>525.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>204.719</v>
       </c>
       <c r="H3" t="n">
-        <v>497.971</v>
+        <v>354.133</v>
       </c>
       <c r="I3" t="n">
-        <v>-122.087</v>
+        <v>19.682</v>
       </c>
       <c r="J3" t="n">
-        <v>-11.175</v>
+        <v>-13.592</v>
       </c>
       <c r="K3" t="n">
-        <v>-133.262</v>
+        <v>6.09</v>
       </c>
       <c r="L3" t="n">
-        <v>116.575</v>
+        <v>1.347</v>
       </c>
       <c r="M3" t="n">
-        <v>-249.837</v>
+        <v>4.743</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-249.837</v>
+        <v>4.743</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-249.837</v>
+        <v>4.743</v>
       </c>
       <c r="R3" t="n">
-        <v>-80.06699999999999</v>
+        <v>53.346</v>
       </c>
       <c r="S3" t="n">
-        <v>-122.087</v>
+        <v>19.682</v>
       </c>
       <c r="T3" t="n">
         <v>29</v>
@@ -1266,10 +1266,10 @@
         <v>29</v>
       </c>
       <c r="V3" t="n">
-        <v>-8.56</v>
+        <v>0.16</v>
       </c>
       <c r="W3" t="n">
-        <v>-8.56</v>
+        <v>0.16</v>
       </c>
       <c r="X3" t="n">
         <v>46.034</v>
@@ -1341,43 +1341,43 @@
         <v>3379.688</v>
       </c>
       <c r="AU3" t="n">
-        <v>-249.837</v>
+        <v>4.743</v>
       </c>
       <c r="AV3" t="n">
-        <v>42.02</v>
+        <v>33.664</v>
       </c>
       <c r="AW3" t="n">
-        <v>184.032</v>
+        <v>-95.983</v>
       </c>
       <c r="AX3" t="n">
-        <v>226.052</v>
+        <v>-62.319</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>104.43</v>
+        <v>-194.121</v>
       </c>
       <c r="BA3" t="n">
-        <v>21.573</v>
+        <v>69.8</v>
       </c>
       <c r="BB3" t="n">
-        <v>-77.846</v>
+        <v>-71.631</v>
       </c>
       <c r="BC3" t="n">
-        <v>42.112</v>
+        <v>-190.945</v>
       </c>
       <c r="BD3" t="n">
-        <v>18.327</v>
+        <v>-248.521</v>
       </c>
       <c r="BE3" t="n">
-        <v>-13.137</v>
+        <v>-15.006</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.244</v>
+        <v>329.717</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
@@ -1389,43 +1389,43 @@
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="BL3" t="n">
-        <v>-7.897</v>
+        <v>314.701</v>
       </c>
       <c r="BM3" t="n">
-        <v>-9.311999999999999</v>
+        <v>41.156</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-9.311999999999999</v>
+        <v>41.156</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.049</v>
+        <v>-0.096</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.049</v>
+        <v>-0.096</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0.153</v>
+        <v>-0.046</v>
       </c>
       <c r="BS3" t="n">
-        <v>-6.202</v>
+        <v>-106.634</v>
       </c>
       <c r="BT3" t="n">
-        <v>-15.716</v>
+        <v>-65.62</v>
       </c>
       <c r="BU3" t="n">
-        <v>-5.286</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BV3" t="n">
-        <v>4.437</v>
+        <v>1.102</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.153</v>
+        <v>-0.046</v>
       </c>
       <c r="BX3" t="n">
         <v>1.3462</v>
@@ -1491,62 +1491,62 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1123.577</v>
+        <v>1139.361</v>
       </c>
       <c r="C4" t="n">
-        <v>731.1079999999999</v>
+        <v>763.477</v>
       </c>
       <c r="D4" t="n">
-        <v>392.469</v>
+        <v>375.884</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>617.066</v>
+        <v>456.689</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>653.648</v>
+        <v>497.971</v>
       </c>
       <c r="I4" t="n">
-        <v>-261.179</v>
+        <v>-122.087</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.144</v>
+        <v>-11.175</v>
       </c>
       <c r="K4" t="n">
-        <v>-270.323</v>
+        <v>-133.262</v>
       </c>
       <c r="L4" t="n">
-        <v>-64.25</v>
+        <v>116.575</v>
       </c>
       <c r="M4" t="n">
-        <v>-206.073</v>
+        <v>-249.837</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-206.073</v>
+        <v>-249.837</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-206.073</v>
+        <v>-249.837</v>
       </c>
       <c r="R4" t="n">
-        <v>-223.983</v>
+        <v>-80.06699999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>-261.179</v>
+        <v>-122.087</v>
       </c>
       <c r="T4" t="n">
         <v>29</v>
@@ -1555,10 +1555,10 @@
         <v>29</v>
       </c>
       <c r="V4" t="n">
-        <v>-7.1</v>
+        <v>-8.56</v>
       </c>
       <c r="W4" t="n">
-        <v>-7.1</v>
+        <v>-8.56</v>
       </c>
       <c r="X4" t="n">
         <v>51.32</v>
@@ -1630,43 +1630,43 @@
         <v>3657.735</v>
       </c>
       <c r="AU4" t="n">
-        <v>-206.073</v>
+        <v>-249.837</v>
       </c>
       <c r="AV4" t="n">
-        <v>37.196</v>
+        <v>42.02</v>
       </c>
       <c r="AW4" t="n">
-        <v>138.385</v>
+        <v>184.032</v>
       </c>
       <c r="AX4" t="n">
-        <v>175.581</v>
+        <v>226.052</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>60.294</v>
+        <v>104.43</v>
       </c>
       <c r="BA4" t="n">
-        <v>-104.78</v>
+        <v>21.573</v>
       </c>
       <c r="BB4" t="n">
-        <v>-101.01</v>
+        <v>-77.846</v>
       </c>
       <c r="BC4" t="n">
-        <v>-138.446</v>
+        <v>42.112</v>
       </c>
       <c r="BD4" t="n">
-        <v>-168.938</v>
+        <v>18.327</v>
       </c>
       <c r="BE4" t="n">
-        <v>-16.861</v>
+        <v>-13.137</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.386</v>
+        <v>5.244</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
@@ -1678,43 +1678,43 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="BL4" t="n">
-        <v>-12.481</v>
+        <v>-7.897</v>
       </c>
       <c r="BM4" t="n">
-        <v>199.756</v>
+        <v>-9.311999999999999</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>199.756</v>
+        <v>-9.311999999999999</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1.417</v>
+        <v>-0.049</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-1.417</v>
+        <v>-0.049</v>
       </c>
       <c r="BR4" t="n">
-        <v>-9.587</v>
+        <v>-0.153</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.743</v>
+        <v>-6.202</v>
       </c>
       <c r="BT4" t="n">
-        <v>188.009</v>
+        <v>-15.716</v>
       </c>
       <c r="BU4" t="n">
-        <v>6.59</v>
+        <v>-5.286</v>
       </c>
       <c r="BV4" t="n">
-        <v>4.058</v>
+        <v>4.437</v>
       </c>
       <c r="BW4" t="n">
-        <v>-9.587</v>
+        <v>-0.153</v>
       </c>
       <c r="BX4" t="n">
         <v>1.4687</v>
@@ -1780,62 +1780,62 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1543.113</v>
+        <v>1123.577</v>
       </c>
       <c r="C5" t="n">
-        <v>982.212</v>
+        <v>731.1079999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>560.901</v>
+        <v>392.469</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>525.905</v>
+        <v>617.066</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>568.956</v>
+        <v>653.648</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.055</v>
+        <v>-261.179</v>
       </c>
       <c r="J5" t="n">
-        <v>-7.366</v>
+        <v>-9.144</v>
       </c>
       <c r="K5" t="n">
-        <v>-15.421</v>
+        <v>-270.323</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.958</v>
+        <v>-64.25</v>
       </c>
       <c r="M5" t="n">
-        <v>-12.463</v>
+        <v>-206.073</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-12.463</v>
+        <v>-206.073</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-12.463</v>
+        <v>-206.073</v>
       </c>
       <c r="R5" t="n">
-        <v>35.554</v>
+        <v>-223.983</v>
       </c>
       <c r="S5" t="n">
-        <v>-8.055</v>
+        <v>-261.179</v>
       </c>
       <c r="T5" t="n">
         <v>29</v>
@@ -1844,10 +1844,10 @@
         <v>29</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.44</v>
+        <v>-7.1</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.44</v>
+        <v>-7.1</v>
       </c>
       <c r="X5" t="n">
         <v>44.73</v>
@@ -1919,43 +1919,43 @@
         <v>3690.931</v>
       </c>
       <c r="AU5" t="n">
-        <v>-12.463</v>
+        <v>-206.073</v>
       </c>
       <c r="AV5" t="n">
-        <v>43.609</v>
+        <v>37.196</v>
       </c>
       <c r="AW5" t="n">
-        <v>74.337</v>
+        <v>138.385</v>
       </c>
       <c r="AX5" t="n">
-        <v>117.946</v>
+        <v>175.581</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>197.331</v>
+        <v>60.294</v>
       </c>
       <c r="BA5" t="n">
-        <v>-60.099</v>
+        <v>-104.78</v>
       </c>
       <c r="BB5" t="n">
-        <v>-110.126</v>
+        <v>-101.01</v>
       </c>
       <c r="BC5" t="n">
-        <v>29.27</v>
+        <v>-138.446</v>
       </c>
       <c r="BD5" t="n">
-        <v>134.753</v>
+        <v>-168.938</v>
       </c>
       <c r="BE5" t="n">
-        <v>-32.058</v>
+        <v>-16.861</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>47.975</v>
+        <v>4.386</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -1970,40 +1970,40 @@
         <v>-0.006</v>
       </c>
       <c r="BL5" t="n">
-        <v>15.911</v>
+        <v>-12.481</v>
       </c>
       <c r="BM5" t="n">
-        <v>-160.236</v>
+        <v>199.756</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-160.236</v>
+        <v>199.756</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.11</v>
+        <v>-1.417</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.11</v>
+        <v>-1.417</v>
       </c>
       <c r="BR5" t="n">
-        <v>-8.734</v>
+        <v>-9.587</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.008</v>
+        <v>-0.743</v>
       </c>
       <c r="BT5" t="n">
-        <v>-168.072</v>
+        <v>188.009</v>
       </c>
       <c r="BU5" t="n">
-        <v>-17.408</v>
+        <v>6.59</v>
       </c>
       <c r="BV5" t="n">
-        <v>3.372</v>
+        <v>4.058</v>
       </c>
       <c r="BW5" t="n">
-        <v>-8.734</v>
+        <v>-9.587</v>
       </c>
       <c r="BX5" t="n">
         <v>1.3973</v>
@@ -2069,62 +2069,62 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1204.281</v>
+        <v>1543.113</v>
       </c>
       <c r="C6" t="n">
-        <v>794.821</v>
+        <v>982.212</v>
       </c>
       <c r="D6" t="n">
-        <v>409.46</v>
+        <v>560.901</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>503.016</v>
+        <v>525.905</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>540.271</v>
+        <v>568.956</v>
       </c>
       <c r="I6" t="n">
-        <v>-130.811</v>
+        <v>-8.055</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.194</v>
+        <v>-7.366</v>
       </c>
       <c r="K6" t="n">
-        <v>-137.005</v>
+        <v>-15.421</v>
       </c>
       <c r="L6" t="n">
-        <v>-33.992</v>
+        <v>-2.958</v>
       </c>
       <c r="M6" t="n">
-        <v>-103.013</v>
+        <v>-12.463</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-103.013</v>
+        <v>-12.463</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-103.013</v>
+        <v>-12.463</v>
       </c>
       <c r="R6" t="n">
-        <v>-93.145</v>
+        <v>35.554</v>
       </c>
       <c r="S6" t="n">
-        <v>-130.811</v>
+        <v>-8.055</v>
       </c>
       <c r="T6" t="n">
         <v>29</v>
@@ -2133,10 +2133,10 @@
         <v>29</v>
       </c>
       <c r="V6" t="n">
-        <v>-3.56</v>
+        <v>-0.44</v>
       </c>
       <c r="W6" t="n">
-        <v>-3.56</v>
+        <v>-0.44</v>
       </c>
       <c r="X6" t="n">
         <v>62.138</v>
@@ -2208,43 +2208,43 @@
         <v>4035.412</v>
       </c>
       <c r="AU6" t="n">
-        <v>-103.013</v>
+        <v>-12.463</v>
       </c>
       <c r="AV6" t="n">
-        <v>37.666</v>
+        <v>43.609</v>
       </c>
       <c r="AW6" t="n">
-        <v>61.099</v>
+        <v>74.337</v>
       </c>
       <c r="AX6" t="n">
-        <v>98.765</v>
+        <v>117.946</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-186.272</v>
+        <v>197.331</v>
       </c>
       <c r="BA6" t="n">
-        <v>78.083</v>
+        <v>-60.099</v>
       </c>
       <c r="BB6" t="n">
-        <v>-37.727</v>
+        <v>-110.126</v>
       </c>
       <c r="BC6" t="n">
-        <v>-139.382</v>
+        <v>29.27</v>
       </c>
       <c r="BD6" t="n">
-        <v>-143.63</v>
+        <v>134.753</v>
       </c>
       <c r="BE6" t="n">
-        <v>-37.983</v>
+        <v>-32.058</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.012</v>
+        <v>47.975</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -2256,43 +2256,43 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="BL6" t="n">
-        <v>-37.979</v>
+        <v>15.911</v>
       </c>
       <c r="BM6" t="n">
-        <v>208.267</v>
+        <v>-160.236</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>208.267</v>
+        <v>-160.236</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.19</v>
+        <v>-0.11</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.19</v>
+        <v>-0.11</v>
       </c>
       <c r="BR6" t="n">
-        <v>-8.766999999999999</v>
+        <v>-8.734</v>
       </c>
       <c r="BS6" t="n">
-        <v>-4.707</v>
+        <v>1.008</v>
       </c>
       <c r="BT6" t="n">
-        <v>194.603</v>
+        <v>-168.072</v>
       </c>
       <c r="BU6" t="n">
-        <v>12.994</v>
+        <v>-17.408</v>
       </c>
       <c r="BV6" t="n">
-        <v>3.902</v>
+        <v>3.372</v>
       </c>
       <c r="BW6" t="n">
-        <v>-8.766999999999999</v>
+        <v>-8.734</v>
       </c>
       <c r="BX6" t="n">
         <v>1.4957</v>
@@ -2358,62 +2358,62 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1346.221</v>
+        <v>1204.281</v>
       </c>
       <c r="C7" t="n">
-        <v>907.673</v>
+        <v>794.821</v>
       </c>
       <c r="D7" t="n">
-        <v>438.548</v>
+        <v>409.46</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>510.444</v>
+        <v>503.016</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>547.641</v>
+        <v>540.271</v>
       </c>
       <c r="I7" t="n">
-        <v>-109.093</v>
+        <v>-130.811</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.647</v>
+        <v>-6.194</v>
       </c>
       <c r="K7" t="n">
-        <v>-112.74</v>
+        <v>-137.005</v>
       </c>
       <c r="L7" t="n">
-        <v>-28.59</v>
+        <v>-33.992</v>
       </c>
       <c r="M7" t="n">
-        <v>-84.15000000000001</v>
+        <v>-103.013</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>-84.15000000000001</v>
+        <v>-103.013</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-84.15000000000001</v>
+        <v>-103.013</v>
       </c>
       <c r="R7" t="n">
-        <v>-71.572</v>
+        <v>-93.145</v>
       </c>
       <c r="S7" t="n">
-        <v>-109.093</v>
+        <v>-130.811</v>
       </c>
       <c r="T7" t="n">
         <v>29</v>
@@ -2422,10 +2422,10 @@
         <v>29</v>
       </c>
       <c r="V7" t="n">
-        <v>-2.91</v>
+        <v>-3.56</v>
       </c>
       <c r="W7" t="n">
-        <v>-2.91</v>
+        <v>-3.56</v>
       </c>
       <c r="X7" t="n">
         <v>49.144</v>
@@ -2497,43 +2497,43 @@
         <v>3831.36</v>
       </c>
       <c r="AU7" t="n">
-        <v>-84.15000000000001</v>
+        <v>-103.013</v>
       </c>
       <c r="AV7" t="n">
-        <v>37.521</v>
+        <v>37.666</v>
       </c>
       <c r="AW7" t="n">
-        <v>63.941</v>
+        <v>61.099</v>
       </c>
       <c r="AX7" t="n">
-        <v>101.462</v>
+        <v>98.765</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>179.729</v>
+        <v>-186.272</v>
       </c>
       <c r="BA7" t="n">
-        <v>-84.828</v>
+        <v>78.083</v>
       </c>
       <c r="BB7" t="n">
-        <v>-71.227</v>
+        <v>-37.727</v>
       </c>
       <c r="BC7" t="n">
-        <v>43.512</v>
+        <v>-139.382</v>
       </c>
       <c r="BD7" t="n">
-        <v>60.824</v>
+        <v>-143.63</v>
       </c>
       <c r="BE7" t="n">
-        <v>-45.631</v>
+        <v>-37.983</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -2545,43 +2545,43 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="BL7" t="n">
-        <v>-45.631</v>
+        <v>-37.979</v>
       </c>
       <c r="BM7" t="n">
-        <v>-18.67</v>
+        <v>208.267</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-18.67</v>
+        <v>208.267</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.241</v>
+        <v>-0.19</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.241</v>
+        <v>-0.19</v>
       </c>
       <c r="BR7" t="n">
-        <v>-8.791</v>
+        <v>-8.766999999999999</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0.054</v>
+        <v>-4.707</v>
       </c>
       <c r="BT7" t="n">
-        <v>-27.756</v>
+        <v>194.603</v>
       </c>
       <c r="BU7" t="n">
-        <v>-12.563</v>
+        <v>12.994</v>
       </c>
       <c r="BV7" t="n">
-        <v>3.858</v>
+        <v>3.902</v>
       </c>
       <c r="BW7" t="n">
-        <v>-8.791</v>
+        <v>-8.766999999999999</v>
       </c>
       <c r="BX7" t="n">
         <v>1.4341</v>
@@ -2647,62 +2647,62 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1374.714</v>
+        <v>1346.221</v>
       </c>
       <c r="C8" t="n">
-        <v>870.12</v>
+        <v>907.673</v>
       </c>
       <c r="D8" t="n">
-        <v>504.594</v>
+        <v>438.548</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>480.779</v>
+        <v>510.444</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>518.135</v>
+        <v>547.641</v>
       </c>
       <c r="I8" t="n">
-        <v>-13.541</v>
+        <v>-109.093</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.71</v>
+        <v>-3.647</v>
       </c>
       <c r="K8" t="n">
-        <v>-15.251</v>
+        <v>-112.74</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.169</v>
+        <v>-28.59</v>
       </c>
       <c r="M8" t="n">
-        <v>-11.082</v>
+        <v>-84.15000000000001</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>-11.082</v>
+        <v>-84.15000000000001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-11.082</v>
+        <v>-84.15000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>24.09</v>
+        <v>-71.572</v>
       </c>
       <c r="S8" t="n">
-        <v>-13.541</v>
+        <v>-109.093</v>
       </c>
       <c r="T8" t="n">
         <v>29</v>
@@ -2711,10 +2711,10 @@
         <v>29</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.39</v>
+        <v>-2.91</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.39</v>
+        <v>-2.91</v>
       </c>
       <c r="X8" t="n">
         <v>61.707</v>
@@ -2786,43 +2786,43 @@
         <v>4051.757</v>
       </c>
       <c r="AU8" t="n">
-        <v>-11.082</v>
+        <v>-84.15000000000001</v>
       </c>
       <c r="AV8" t="n">
-        <v>37.631</v>
+        <v>37.521</v>
       </c>
       <c r="AW8" t="n">
-        <v>72.31</v>
+        <v>63.941</v>
       </c>
       <c r="AX8" t="n">
-        <v>109.941</v>
+        <v>101.462</v>
       </c>
       <c r="AY8" t="n">
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-100.94</v>
+        <v>179.729</v>
       </c>
       <c r="BA8" t="n">
-        <v>-98.97199999999999</v>
+        <v>-84.828</v>
       </c>
       <c r="BB8" t="n">
-        <v>-86.324</v>
+        <v>-71.227</v>
       </c>
       <c r="BC8" t="n">
-        <v>-295.092</v>
+        <v>43.512</v>
       </c>
       <c r="BD8" t="n">
-        <v>-196.233</v>
+        <v>60.824</v>
       </c>
       <c r="BE8" t="n">
-        <v>-43.741</v>
+        <v>-45.631</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.505</v>
+        <v>0.004</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
@@ -2834,43 +2834,43 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="BL8" t="n">
-        <v>-41.241</v>
+        <v>-45.631</v>
       </c>
       <c r="BM8" t="n">
-        <v>266.803</v>
+        <v>-18.67</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>266.803</v>
+        <v>-18.67</v>
       </c>
       <c r="BP8" t="n">
-        <v>-10.639</v>
+        <v>-0.241</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-10.639</v>
+        <v>-0.241</v>
       </c>
       <c r="BR8" t="n">
-        <v>-10.705</v>
+        <v>-8.791</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0.054</v>
       </c>
       <c r="BT8" t="n">
-        <v>245.459</v>
+        <v>-27.756</v>
       </c>
       <c r="BU8" t="n">
-        <v>7.985</v>
+        <v>-12.563</v>
       </c>
       <c r="BV8" t="n">
-        <v>3.667</v>
+        <v>3.858</v>
       </c>
       <c r="BW8" t="n">
-        <v>-10.705</v>
+        <v>-8.791</v>
       </c>
       <c r="BX8" t="n">
         <v>1.5222</v>
@@ -2936,74 +2936,74 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1732.021</v>
+        <v>1374.714</v>
       </c>
       <c r="C9" t="n">
-        <v>1085.939</v>
+        <v>870.12</v>
       </c>
       <c r="D9" t="n">
-        <v>646.082</v>
+        <v>504.594</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>541.228</v>
+        <v>480.779</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>578.604</v>
+        <v>518.135</v>
       </c>
       <c r="I9" t="n">
-        <v>67.47799999999999</v>
+        <v>-13.541</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.906</v>
+        <v>-1.71</v>
       </c>
       <c r="K9" t="n">
-        <v>65.572</v>
+        <v>-15.251</v>
       </c>
       <c r="L9" t="n">
-        <v>15.734</v>
+        <v>-4.169</v>
       </c>
       <c r="M9" t="n">
-        <v>49.838</v>
+        <v>-11.082</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>49.838</v>
+        <v>-11.082</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.838</v>
+        <v>-11.082</v>
       </c>
       <c r="R9" t="n">
-        <v>105.133</v>
+        <v>24.09</v>
       </c>
       <c r="S9" t="n">
-        <v>67.47799999999999</v>
+        <v>-13.541</v>
       </c>
       <c r="T9" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U9" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>-0.39</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>-0.39</v>
       </c>
       <c r="X9" t="n">
         <v>53.722</v>
@@ -3075,43 +3075,43 @@
         <v>3927.253</v>
       </c>
       <c r="AU9" t="n">
-        <v>49.838</v>
+        <v>-11.082</v>
       </c>
       <c r="AV9" t="n">
-        <v>37.655</v>
+        <v>37.631</v>
       </c>
       <c r="AW9" t="n">
-        <v>98.831</v>
+        <v>72.31</v>
       </c>
       <c r="AX9" t="n">
-        <v>136.486</v>
+        <v>109.941</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>39.428</v>
+        <v>-100.94</v>
       </c>
       <c r="BA9" t="n">
-        <v>-17.84</v>
+        <v>-98.97199999999999</v>
       </c>
       <c r="BB9" t="n">
-        <v>-85.92400000000001</v>
+        <v>-86.324</v>
       </c>
       <c r="BC9" t="n">
-        <v>-68.268</v>
+        <v>-295.092</v>
       </c>
       <c r="BD9" t="n">
-        <v>118.056</v>
+        <v>-196.233</v>
       </c>
       <c r="BE9" t="n">
-        <v>-38.108</v>
+        <v>-43.741</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.97</v>
+        <v>2.505</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -3123,43 +3123,43 @@
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="BL9" t="n">
-        <v>-37.141</v>
+        <v>-41.241</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.114</v>
+        <v>266.803</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.114</v>
+        <v>266.803</v>
       </c>
       <c r="BP9" t="n">
-        <v>-90.866</v>
+        <v>-10.639</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-90.866</v>
+        <v>-10.639</v>
       </c>
       <c r="BR9" t="n">
-        <v>-9.099</v>
+        <v>-10.705</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-97.789</v>
+        <v>245.459</v>
       </c>
       <c r="BU9" t="n">
-        <v>-16.874</v>
+        <v>7.985</v>
       </c>
       <c r="BV9" t="n">
-        <v>7.956</v>
+        <v>3.667</v>
       </c>
       <c r="BW9" t="n">
-        <v>-9.099</v>
+        <v>-10.705</v>
       </c>
       <c r="BX9" t="n">
         <v>1.2547</v>
@@ -3220,1162 +3220,6 @@
       </c>
       <c r="CQ9" t="n">
         <v>2.4714</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2021-10-31</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1335.656</v>
-      </c>
-      <c r="C10" t="n">
-        <v>816.475</v>
-      </c>
-      <c r="D10" t="n">
-        <v>519.181</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>487.378</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>523.308</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-4.127</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-1.999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-6.126</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-1.796</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-4.33</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-4.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-4.33</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-97.696</v>
-      </c>
-      <c r="S10" t="n">
-        <v>-4.127</v>
-      </c>
-      <c r="T10" t="n">
-        <v>32</v>
-      </c>
-      <c r="U10" t="n">
-        <v>32</v>
-      </c>
-      <c r="V10" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="W10" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="X10" t="n">
-        <v>70.596</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1277.225</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>148.959</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1496.78</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>738.673</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>35.524</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2535.543</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>4032.323</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1179.691</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>215.079</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1802.792</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2982.483</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>3446.916</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1049.84</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4032.323</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>-4.33</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>-93.569</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>215.153</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>121.584</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>-333.449</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>214.739</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>-52.399</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>-183.706</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>-66.452</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>-45.621</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>-45.459</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>-0.021</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>-0.021</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>-99.756</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>-99.756</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>-9.890000000000001</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>-1.148</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>-110.815</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>-222.726</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>8.701000000000001</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>-9.890000000000001</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>1.2688</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>38.8709</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>-0.309</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>-0.309</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>-0.4587</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>-0.3242</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0.6393</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>-0.4124</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>-0.4124</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>-0.1074</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>-0.4124</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>34.3815</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>-1.7051</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>-3.358</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2021-07-31</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1457.374</v>
-      </c>
-      <c r="C11" t="n">
-        <v>879.577</v>
-      </c>
-      <c r="D11" t="n">
-        <v>577.797</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>488.658</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>523.947</v>
-      </c>
-      <c r="I11" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-2.429</v>
-      </c>
-      <c r="K11" t="n">
-        <v>51.421</v>
-      </c>
-      <c r="L11" t="n">
-        <v>13.714</v>
-      </c>
-      <c r="M11" t="n">
-        <v>37.707</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>37.707</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>37.707</v>
-      </c>
-      <c r="R11" t="n">
-        <v>219.361</v>
-      </c>
-      <c r="S11" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="T11" t="n">
-        <v>34</v>
-      </c>
-      <c r="U11" t="n">
-        <v>35</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X11" t="n">
-        <v>293.322</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>943.776</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>142.066</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1379.164</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>737.259</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>35.355</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2443.561</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>3822.725</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>959.6130000000001</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>216.308</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1709.743</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2669.356</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>3461.455</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1153.369</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3822.725</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>37.707</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>165.511</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>-55.559</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>109.952</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>-42.295</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>9.656000000000001</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>-87.81999999999999</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>-209.794</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>-62.135</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>-44.915</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>-44.916</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>-47.638</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>-47.638</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>-154.736</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>-154.736</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>-10.204</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>-0.378</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>-212.956</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>-320.007</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>11.037</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>-10.204</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>1.4372</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>39.6465</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>3.695</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>3.695</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>3.5283</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>2.5873</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0.3812</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>3.2693</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>3.2693</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0.9864000000000001</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>3.2693</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>35.4338</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>-1.5733</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>-2.9012</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2021-04-30</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1625.552</v>
-      </c>
-      <c r="C12" t="n">
-        <v>971.605</v>
-      </c>
-      <c r="D12" t="n">
-        <v>653.947</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>497.418</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>531.395</v>
-      </c>
-      <c r="I12" t="n">
-        <v>122.552</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-1.608</v>
-      </c>
-      <c r="K12" t="n">
-        <v>120.944</v>
-      </c>
-      <c r="L12" t="n">
-        <v>26.381</v>
-      </c>
-      <c r="M12" t="n">
-        <v>94.563</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>94.563</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>94.563</v>
-      </c>
-      <c r="R12" t="n">
-        <v>156.668</v>
-      </c>
-      <c r="S12" t="n">
-        <v>122.552</v>
-      </c>
-      <c r="T12" t="n">
-        <v>35</v>
-      </c>
-      <c r="U12" t="n">
-        <v>36</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="X12" t="n">
-        <v>613.329</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>901.482</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>114.001</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1628.812</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>723.158</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>36.008</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>2408.724</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>4037.536</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1049.919</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>32.063</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>217.157</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1719.115</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2769.034</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>3434.359</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1268.502</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4037.536</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>94.563</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>34.116</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>70.964</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>105.08</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>38.813</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>-17.492</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>-46.106</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>204.293</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>-32.16</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>-32.17</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>-4.873</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>-4.873</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>-101.016</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>-101.016</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>-12.46</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>-118.35</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>53.773</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>11.907</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>-12.46</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>1.5514</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0.0247</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0.0253</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>40.2292</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>7.5391</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>7.5391</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>7.4402</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>5.8173</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>0.4026</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>1.0778</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>7.4547</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>7.4547</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>2.3421</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>7.2709</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>36.326</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>5.6682</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>4.7759</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2021-01-31</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1737.915</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1052.742</v>
-      </c>
-      <c r="D13" t="n">
-        <v>685.173</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>520.617</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>554.203</v>
-      </c>
-      <c r="I13" t="n">
-        <v>130.97</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-1.042</v>
-      </c>
-      <c r="K13" t="n">
-        <v>129.928</v>
-      </c>
-      <c r="L13" t="n">
-        <v>31.942</v>
-      </c>
-      <c r="M13" t="n">
-        <v>97.986</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>97.986</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>97.986</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-10.492</v>
-      </c>
-      <c r="S13" t="n">
-        <v>130.97</v>
-      </c>
-      <c r="T13" t="n">
-        <v>38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>39</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>559.556</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>940.294</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>85.93899999999999</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1585.789</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>717.216</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>68.914</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2451.468</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>4037.257</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000.624</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>35.764</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>249.943</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1758.902</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2759.526</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>3351.002</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1277.731</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>4037.257</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>97.986</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>-141.462</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>251.029</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>109.567</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>148.773</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>-171</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>-47.747</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>-75.614</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>131.939</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>-32.22</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>-0.029</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>-32.222</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>-4.236</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>-4.236</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>-72.616</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>-72.616</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>-11.139</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>-87.992</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>11.725</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>7.811</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>-11.139</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>1.5848</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>39.425</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>7.536</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>7.5361</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>7.4761</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>5.6381</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0.4305</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>1.1196</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>7.6688</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>7.6688</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>2.427</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>7.4599</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>35.957</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>3.3989</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>2.5658</v>
       </c>
     </row>
   </sheetData>
